--- a/Code/Results/Cases/Case_8_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19001572680773</v>
+        <v>13.02354872788742</v>
       </c>
       <c r="C2">
-        <v>7.316317519305421</v>
+        <v>8.706386709943871</v>
       </c>
       <c r="D2">
-        <v>6.733847347950688</v>
+        <v>5.601986783117062</v>
       </c>
       <c r="E2">
-        <v>6.22022158609562</v>
+        <v>6.48812410130246</v>
       </c>
       <c r="F2">
-        <v>41.15676081770401</v>
+        <v>33.83389509443371</v>
       </c>
       <c r="G2">
-        <v>2.141566044937191</v>
+        <v>8.555724176721142</v>
       </c>
       <c r="H2">
-        <v>3.489211273242265</v>
+        <v>2.901003400602307</v>
       </c>
       <c r="I2">
-        <v>4.478288000263149</v>
+        <v>3.824553597371061</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.81379277639034</v>
+        <v>24.86483965091684</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19.45054660335363</v>
       </c>
       <c r="M2">
-        <v>11.40261591445551</v>
+        <v>17.57539193176693</v>
       </c>
       <c r="N2">
-        <v>7.095367030521412</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.94248674308793</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.422465466450038</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.37800074345673</v>
+        <v>12.17599637285088</v>
       </c>
       <c r="C3">
-        <v>6.786092767545298</v>
+        <v>8.110441412778256</v>
       </c>
       <c r="D3">
-        <v>6.651118376313897</v>
+        <v>5.546760983174875</v>
       </c>
       <c r="E3">
-        <v>5.890833977828717</v>
+        <v>6.252293949889467</v>
       </c>
       <c r="F3">
-        <v>39.50072768830996</v>
+        <v>32.68530861580312</v>
       </c>
       <c r="G3">
-        <v>2.147526439628913</v>
+        <v>9.26547383992378</v>
       </c>
       <c r="H3">
-        <v>3.759423602539544</v>
+        <v>3.119265537706066</v>
       </c>
       <c r="I3">
-        <v>4.717948647738654</v>
+        <v>4.00528260540827</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>29.80374741955581</v>
+        <v>24.30332137495384</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>19.18890998118427</v>
       </c>
       <c r="M3">
-        <v>10.65294029135401</v>
+        <v>17.00833417901047</v>
       </c>
       <c r="N3">
-        <v>6.761978734848705</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.20286893201368</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.106250322376603</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.85377125296495</v>
+        <v>11.62370236932714</v>
       </c>
       <c r="C4">
-        <v>6.447265912326275</v>
+        <v>7.727076902449322</v>
       </c>
       <c r="D4">
-        <v>6.596657465608659</v>
+        <v>5.510217963884251</v>
       </c>
       <c r="E4">
-        <v>5.679275001476488</v>
+        <v>6.101642052321668</v>
       </c>
       <c r="F4">
-        <v>38.44492605407546</v>
+        <v>31.95139478855474</v>
       </c>
       <c r="G4">
-        <v>2.151299224733507</v>
+        <v>9.715564935456058</v>
       </c>
       <c r="H4">
-        <v>3.930850822452248</v>
+        <v>3.258036374466945</v>
       </c>
       <c r="I4">
-        <v>4.870409783310981</v>
+        <v>4.120866957906768</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.1597177519409</v>
+        <v>23.94334661576291</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>19.0131302365662</v>
       </c>
       <c r="M4">
-        <v>10.16693821359558</v>
+        <v>16.66067173526486</v>
       </c>
       <c r="N4">
-        <v>6.549098823776483</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.72367081569055</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.905012613155373</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.63249108748549</v>
+        <v>11.38921954968352</v>
       </c>
       <c r="C5">
-        <v>6.312085191428074</v>
+        <v>7.571713753124838</v>
       </c>
       <c r="D5">
-        <v>6.569587476819429</v>
+        <v>5.493026379430095</v>
       </c>
       <c r="E5">
-        <v>5.588521447500879</v>
+        <v>6.037275119536433</v>
       </c>
       <c r="F5">
-        <v>37.97111763608267</v>
+        <v>31.61776971991938</v>
       </c>
       <c r="G5">
-        <v>2.152879979592002</v>
+        <v>9.90419177792012</v>
       </c>
       <c r="H5">
-        <v>4.002743415934173</v>
+        <v>3.316271502585761</v>
       </c>
       <c r="I5">
-        <v>4.936456056500526</v>
+        <v>4.172061325122326</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.86450296308414</v>
+        <v>23.77213767417779</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18.92072761305172</v>
       </c>
       <c r="M5">
-        <v>9.963458437858169</v>
+        <v>16.50501162463407</v>
       </c>
       <c r="N5">
-        <v>6.460566581849648</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.52296446535481</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.821456657728529</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.59378191451725</v>
+        <v>11.34812162813977</v>
       </c>
       <c r="C6">
-        <v>6.297101747446591</v>
+        <v>7.552082894907473</v>
       </c>
       <c r="D6">
-        <v>6.560213691210004</v>
+        <v>5.488155404733606</v>
       </c>
       <c r="E6">
-        <v>5.570617702154384</v>
+        <v>6.024636207643645</v>
       </c>
       <c r="F6">
-        <v>37.85005074074883</v>
+        <v>31.5282063022492</v>
       </c>
       <c r="G6">
-        <v>2.153161538877221</v>
+        <v>9.937623930402392</v>
       </c>
       <c r="H6">
-        <v>4.015521439492514</v>
+        <v>3.32658830486285</v>
       </c>
       <c r="I6">
-        <v>4.950743466744088</v>
+        <v>4.184362740089068</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.78210276134966</v>
+        <v>23.71807364671813</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18.8844547990457</v>
       </c>
       <c r="M6">
-        <v>9.930576869360012</v>
+        <v>16.46150588980745</v>
       </c>
       <c r="N6">
-        <v>6.446012868284829</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.49030292935355</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.807674534754951</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.84654728573661</v>
+        <v>11.62405779209966</v>
       </c>
       <c r="C7">
-        <v>6.465805423139573</v>
+        <v>7.701313462893086</v>
       </c>
       <c r="D7">
-        <v>6.583189523520694</v>
+        <v>5.495814172911897</v>
       </c>
       <c r="E7">
-        <v>5.670831701600234</v>
+        <v>6.103025091178331</v>
       </c>
       <c r="F7">
-        <v>38.32588641490003</v>
+        <v>31.69354606901841</v>
       </c>
       <c r="G7">
-        <v>2.151367256778188</v>
+        <v>9.771915365584336</v>
       </c>
       <c r="H7">
-        <v>3.933853132284334</v>
+        <v>3.262726563547302</v>
       </c>
       <c r="I7">
-        <v>4.879913452708879</v>
+        <v>4.133994846443293</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.06650775164644</v>
+        <v>23.76685958672426</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18.8713295026054</v>
       </c>
       <c r="M7">
-        <v>10.16767053328782</v>
+        <v>16.53580685202176</v>
       </c>
       <c r="N7">
-        <v>6.548630519756188</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.7142889890589</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.900301872676305</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91003388616804</v>
+        <v>12.75679708837512</v>
       </c>
       <c r="C8">
-        <v>7.160710220243663</v>
+        <v>8.399932138579784</v>
       </c>
       <c r="D8">
-        <v>6.6891266456098</v>
+        <v>5.551489511245703</v>
       </c>
       <c r="E8">
-        <v>6.099563680827103</v>
+        <v>6.424993699977545</v>
       </c>
       <c r="F8">
-        <v>40.45220395747107</v>
+        <v>32.81650605160947</v>
       </c>
       <c r="G8">
-        <v>2.14365834653479</v>
+        <v>9.021359202665295</v>
       </c>
       <c r="H8">
-        <v>3.583862195899569</v>
+        <v>2.984753608419945</v>
       </c>
       <c r="I8">
-        <v>4.570865245651094</v>
+        <v>3.906671206316847</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>30.35714478787356</v>
+        <v>24.25086137457351</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>19.03013471821732</v>
       </c>
       <c r="M8">
-        <v>11.15359952191737</v>
+        <v>17.07217339991808</v>
       </c>
       <c r="N8">
-        <v>6.983054990738406</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.66672655005768</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.302720396203931</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.79637873767308</v>
+        <v>14.70429279661193</v>
       </c>
       <c r="C9">
-        <v>8.388445134746377</v>
+        <v>9.754310055252223</v>
       </c>
       <c r="D9">
-        <v>6.890347089423305</v>
+        <v>5.67831562620961</v>
       </c>
       <c r="E9">
-        <v>6.878493481790088</v>
+        <v>6.990393688578192</v>
       </c>
       <c r="F9">
-        <v>44.48375592581245</v>
+        <v>35.53032328808841</v>
       </c>
       <c r="G9">
-        <v>2.129324319259692</v>
+        <v>7.390610409037259</v>
       </c>
       <c r="H9">
-        <v>2.936401177168284</v>
+        <v>2.465481283639815</v>
       </c>
       <c r="I9">
-        <v>3.991449493595971</v>
+        <v>3.471487040021684</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>32.84006731295908</v>
+        <v>25.57793257082214</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>19.62310488641783</v>
       </c>
       <c r="M9">
-        <v>12.87927816434595</v>
+        <v>18.47433052659309</v>
       </c>
       <c r="N9">
-        <v>7.766850666487189</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.36535710778248</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.047132539774575</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.11457089976965</v>
+        <v>16.00866266582449</v>
       </c>
       <c r="C10">
-        <v>9.276914210195672</v>
+        <v>10.51617899383743</v>
       </c>
       <c r="D10">
-        <v>6.956437380727302</v>
+        <v>5.720217932405712</v>
       </c>
       <c r="E10">
-        <v>7.245198102831408</v>
+        <v>7.272820479991358</v>
       </c>
       <c r="F10">
-        <v>46.72303434907386</v>
+        <v>36.21000313592469</v>
       </c>
       <c r="G10">
-        <v>2.119536821588055</v>
+        <v>7.172853544102138</v>
       </c>
       <c r="H10">
-        <v>2.519541688102487</v>
+        <v>2.150075310160352</v>
       </c>
       <c r="I10">
-        <v>3.605762607016695</v>
+        <v>3.199482735633696</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>34.12834149471281</v>
+        <v>25.66318905667606</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>19.38065189236194</v>
       </c>
       <c r="M10">
-        <v>14.03192379991488</v>
+        <v>18.86569022719368</v>
       </c>
       <c r="N10">
-        <v>8.16038674306566</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.45183592647462</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.396240363334623</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.563195567719</v>
+        <v>16.55575510331225</v>
       </c>
       <c r="C11">
-        <v>10.02555370974579</v>
+        <v>10.76709077978984</v>
       </c>
       <c r="D11">
-        <v>6.541533368611137</v>
+        <v>5.777380404707269</v>
       </c>
       <c r="E11">
-        <v>6.180806291322491</v>
+        <v>6.391168582436824</v>
       </c>
       <c r="F11">
-        <v>43.63002018542696</v>
+        <v>32.1939674407627</v>
       </c>
       <c r="G11">
-        <v>2.117221171075892</v>
+        <v>9.868660300161327</v>
       </c>
       <c r="H11">
-        <v>3.302565248747539</v>
+        <v>3.053709715196934</v>
       </c>
       <c r="I11">
-        <v>3.543710621919982</v>
+        <v>3.178003752358448</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.45903793239601</v>
+        <v>22.61838225787978</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.9936645379043</v>
       </c>
       <c r="M11">
-        <v>14.57441762192123</v>
+        <v>16.67077345313727</v>
       </c>
       <c r="N11">
-        <v>7.155122588290663</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.87143857513188</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.341713795334473</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.68085667713892</v>
+        <v>16.73898178763524</v>
       </c>
       <c r="C12">
-        <v>10.46030599546054</v>
+        <v>10.91292823714845</v>
       </c>
       <c r="D12">
-        <v>6.300055303538637</v>
+        <v>5.96868460403642</v>
       </c>
       <c r="E12">
-        <v>5.475294341515598</v>
+        <v>5.803385733595689</v>
       </c>
       <c r="F12">
-        <v>40.68215199153094</v>
+        <v>29.26564668304928</v>
       </c>
       <c r="G12">
-        <v>2.117051913978704</v>
+        <v>11.46130289946941</v>
       </c>
       <c r="H12">
-        <v>4.543937502949977</v>
+        <v>4.363586860097194</v>
       </c>
       <c r="I12">
-        <v>3.54710902782289</v>
+        <v>3.182644403464931</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>29.07467535942417</v>
+        <v>20.52561324258356</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.42710585606069</v>
       </c>
       <c r="M12">
-        <v>14.79764142415894</v>
+        <v>15.08627059545544</v>
       </c>
       <c r="N12">
-        <v>6.25813248777002</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.03030157522033</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.427814847400315</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.54907551149106</v>
+        <v>16.63701313422443</v>
       </c>
       <c r="C13">
-        <v>10.71724002188822</v>
+        <v>11.08813848741531</v>
       </c>
       <c r="D13">
-        <v>6.166670876105491</v>
+        <v>6.147930109638544</v>
       </c>
       <c r="E13">
-        <v>5.077282102486718</v>
+        <v>5.483518970289272</v>
       </c>
       <c r="F13">
-        <v>37.45732618235434</v>
+        <v>27.13201624201709</v>
       </c>
       <c r="G13">
-        <v>2.118593258815893</v>
+        <v>11.17240891214392</v>
       </c>
       <c r="H13">
-        <v>5.901732632910675</v>
+        <v>5.74884793963266</v>
       </c>
       <c r="I13">
-        <v>3.615632442554041</v>
+        <v>3.223643795058378</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.61844832904889</v>
+        <v>19.08533832347613</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.39934634570793</v>
       </c>
       <c r="M13">
-        <v>14.80006455861432</v>
+        <v>13.93562527728437</v>
       </c>
       <c r="N13">
-        <v>5.393573435524279</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.02364779416411</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.577795093447527</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34146155894123</v>
+        <v>16.4346560825978</v>
       </c>
       <c r="C14">
-        <v>10.82710613410679</v>
+        <v>11.22943668584479</v>
       </c>
       <c r="D14">
-        <v>6.139218880468471</v>
+        <v>6.245730055223738</v>
       </c>
       <c r="E14">
-        <v>5.02943768147343</v>
+        <v>5.477926799291845</v>
       </c>
       <c r="F14">
-        <v>35.02531796645766</v>
+        <v>25.93377276697744</v>
       </c>
       <c r="G14">
-        <v>2.120436465304111</v>
+        <v>10.17384426089703</v>
       </c>
       <c r="H14">
-        <v>6.885129782925689</v>
+        <v>6.740403240036189</v>
       </c>
       <c r="I14">
-        <v>3.694957760871469</v>
+        <v>3.27262997508791</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.85099039632102</v>
+        <v>18.32369226073953</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.87753908837795</v>
       </c>
       <c r="M14">
-        <v>14.70359088280417</v>
+        <v>13.29713396379884</v>
       </c>
       <c r="N14">
-        <v>4.826004805422887</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.94403908748675</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.034190379891332</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.23487720856405</v>
+        <v>16.32300338663308</v>
       </c>
       <c r="C15">
-        <v>10.82238422660183</v>
+        <v>11.27130309325887</v>
       </c>
       <c r="D15">
-        <v>6.141025988966517</v>
+        <v>6.247881817080488</v>
       </c>
       <c r="E15">
-        <v>5.04069601111715</v>
+        <v>5.505435101626047</v>
       </c>
       <c r="F15">
-        <v>34.33565556485787</v>
+        <v>25.74794646259551</v>
       </c>
       <c r="G15">
-        <v>2.121290045905599</v>
+        <v>9.623222633588213</v>
       </c>
       <c r="H15">
-        <v>7.118840592615891</v>
+        <v>6.972798837515498</v>
       </c>
       <c r="I15">
-        <v>3.733272837988926</v>
+        <v>3.298496965622071</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.37627158519931</v>
+        <v>18.21766272683284</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.81375334976329</v>
       </c>
       <c r="M15">
-        <v>14.63322571032079</v>
+        <v>13.19507483982905</v>
       </c>
       <c r="N15">
-        <v>4.691459249327125</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.88811594120081</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.910535465623058</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.71935145867389</v>
+        <v>15.7458782816231</v>
       </c>
       <c r="C16">
-        <v>10.44530469964138</v>
+        <v>11.23249170969607</v>
       </c>
       <c r="D16">
-        <v>6.131470382353119</v>
+        <v>6.027709352239909</v>
       </c>
       <c r="E16">
-        <v>4.915380179800396</v>
+        <v>5.4591474465717</v>
       </c>
       <c r="F16">
-        <v>33.81724370412035</v>
+        <v>26.86326571058697</v>
       </c>
       <c r="G16">
-        <v>2.125161623134793</v>
+        <v>7.537145867927997</v>
       </c>
       <c r="H16">
-        <v>6.964694031631824</v>
+        <v>6.786521938363673</v>
       </c>
       <c r="I16">
-        <v>3.888642123536143</v>
+        <v>3.39879346289436</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.19923661531959</v>
+        <v>19.02934354708098</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.46833146744969</v>
       </c>
       <c r="M16">
-        <v>14.16657040236804</v>
+        <v>13.74222107526852</v>
       </c>
       <c r="N16">
-        <v>4.65614008060779</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.51238999240956</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.918292302611951</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.43701108059372</v>
+        <v>15.41656927433304</v>
       </c>
       <c r="C17">
-        <v>10.08645829711622</v>
+        <v>11.07106001606359</v>
       </c>
       <c r="D17">
-        <v>6.127329446366104</v>
+        <v>5.860067301434467</v>
       </c>
       <c r="E17">
-        <v>4.796256892309974</v>
+        <v>5.35598868696635</v>
       </c>
       <c r="F17">
-        <v>34.74611666208148</v>
+        <v>28.2037803456087</v>
       </c>
       <c r="G17">
-        <v>2.12717303464667</v>
+        <v>7.094668667203832</v>
       </c>
       <c r="H17">
-        <v>6.30316326712455</v>
+        <v>6.089442421532893</v>
       </c>
       <c r="I17">
-        <v>3.967003163523941</v>
+        <v>3.452094209931138</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.00670204542521</v>
+        <v>19.99375642493685</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.22583399732843</v>
       </c>
       <c r="M17">
-        <v>13.85386923503969</v>
+        <v>14.43300697309178</v>
       </c>
       <c r="N17">
-        <v>4.924467408426581</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.25070834366506</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.204569194331388</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.31443678162271</v>
+        <v>15.26136157715064</v>
       </c>
       <c r="C18">
-        <v>9.693696392696204</v>
+        <v>10.84122894996189</v>
       </c>
       <c r="D18">
-        <v>6.190457609562678</v>
+        <v>5.718659487631968</v>
       </c>
       <c r="E18">
-        <v>4.912621362415797</v>
+        <v>5.394856472170107</v>
       </c>
       <c r="F18">
-        <v>37.12234265011854</v>
+        <v>30.24461535863724</v>
       </c>
       <c r="G18">
-        <v>2.12767162988587</v>
+        <v>6.984016458240773</v>
       </c>
       <c r="H18">
-        <v>5.174710217827334</v>
+        <v>4.909820206084571</v>
       </c>
       <c r="I18">
-        <v>3.974239846386304</v>
+        <v>3.453874846925019</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.85736035846402</v>
+        <v>21.44765463028628</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.34103622257243</v>
       </c>
       <c r="M18">
-        <v>13.64342046125104</v>
+        <v>15.51457645056217</v>
       </c>
       <c r="N18">
-        <v>5.546962935372354</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.07742451379071</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.830966116781185</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.32317033778058</v>
+        <v>15.24895447921155</v>
       </c>
       <c r="C19">
-        <v>9.343731765712255</v>
+        <v>10.6325404309805</v>
       </c>
       <c r="D19">
-        <v>6.383561667257941</v>
+        <v>5.654197177251725</v>
       </c>
       <c r="E19">
-        <v>5.52064164684584</v>
+        <v>5.832142604951176</v>
       </c>
       <c r="F19">
-        <v>40.31071599896266</v>
+        <v>32.6711624091342</v>
       </c>
       <c r="G19">
-        <v>2.12683848865211</v>
+        <v>6.871618730668727</v>
       </c>
       <c r="H19">
-        <v>3.894345226440339</v>
+        <v>3.554865362614322</v>
       </c>
       <c r="I19">
-        <v>3.93467139292983</v>
+        <v>3.429448393096491</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.32114460521997</v>
+        <v>23.19405925301832</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.66494176647303</v>
       </c>
       <c r="M19">
-        <v>13.54196034090485</v>
+        <v>16.83327916960705</v>
       </c>
       <c r="N19">
-        <v>6.464221061107573</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.003394916369</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.74452317467968</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.76335206795678</v>
+        <v>15.64341849645209</v>
       </c>
       <c r="C20">
-        <v>9.096463848322815</v>
+        <v>10.47576997839436</v>
       </c>
       <c r="D20">
-        <v>6.900803740894506</v>
+        <v>5.715259491637465</v>
       </c>
       <c r="E20">
-        <v>7.124762245742168</v>
+        <v>7.15824709159011</v>
       </c>
       <c r="F20">
-        <v>45.83177703805036</v>
+        <v>36.27374688066679</v>
       </c>
       <c r="G20">
-        <v>2.122220886553184</v>
+        <v>6.673063320270406</v>
       </c>
       <c r="H20">
-        <v>2.633267680655437</v>
+        <v>2.22810833255242</v>
       </c>
       <c r="I20">
-        <v>3.735130316745388</v>
+        <v>3.296030142432864</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.54049315217321</v>
+        <v>25.77481921133391</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>19.54334603365474</v>
       </c>
       <c r="M20">
-        <v>13.74546412940498</v>
+        <v>18.86446911003343</v>
       </c>
       <c r="N20">
-        <v>8.054540415985814</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.20831663351367</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.313610103805036</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.75553769972245</v>
+        <v>16.72388255659306</v>
       </c>
       <c r="C21">
-        <v>9.686210592972571</v>
+        <v>10.42381005731853</v>
       </c>
       <c r="D21">
-        <v>7.043168236737288</v>
+        <v>5.72929265700612</v>
       </c>
       <c r="E21">
-        <v>7.644145794708894</v>
+        <v>7.707889858293826</v>
       </c>
       <c r="F21">
-        <v>48.26542521585699</v>
+        <v>34.83691883128532</v>
       </c>
       <c r="G21">
-        <v>2.114435440091483</v>
+        <v>11.14936065867106</v>
       </c>
       <c r="H21">
-        <v>2.267455244061675</v>
+        <v>1.977746424638661</v>
       </c>
       <c r="I21">
-        <v>3.423470873510516</v>
+        <v>3.11350854170238</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.11121284568824</v>
+        <v>24.58472064598462</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.43513884687772</v>
       </c>
       <c r="M21">
-        <v>14.58324598426195</v>
+        <v>18.20182222554853</v>
       </c>
       <c r="N21">
-        <v>8.55989616938567</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.86360041375178</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.724666019719534</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37503127342769</v>
+        <v>17.40800019257722</v>
       </c>
       <c r="C22">
-        <v>10.06499048105115</v>
+        <v>10.36853942264817</v>
       </c>
       <c r="D22">
-        <v>7.118928090037162</v>
+        <v>5.794046363829708</v>
       </c>
       <c r="E22">
-        <v>7.901216425334523</v>
+        <v>8.011025611557573</v>
       </c>
       <c r="F22">
-        <v>49.69086065699128</v>
+        <v>33.67320503183699</v>
       </c>
       <c r="G22">
-        <v>2.109488157779337</v>
+        <v>15.57903988099746</v>
       </c>
       <c r="H22">
-        <v>2.046187134064982</v>
+        <v>1.829566291039981</v>
       </c>
       <c r="I22">
-        <v>3.216999963524826</v>
+        <v>2.985535171628997</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>36.01809240892107</v>
+        <v>23.65895162057311</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.62167453781818</v>
       </c>
       <c r="M22">
-        <v>15.10912840032656</v>
+        <v>17.64398617519387</v>
       </c>
       <c r="N22">
-        <v>8.809184810066489</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.26582296745824</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.911380449041218</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.05163000195964</v>
+        <v>17.03371420973671</v>
       </c>
       <c r="C23">
-        <v>9.847436201873785</v>
+        <v>10.45781595138057</v>
       </c>
       <c r="D23">
-        <v>7.0927276967465</v>
+        <v>5.749429357528013</v>
       </c>
       <c r="E23">
-        <v>7.771390546562551</v>
+        <v>7.835426613817431</v>
       </c>
       <c r="F23">
-        <v>49.04046399236007</v>
+        <v>34.71936939415372</v>
       </c>
       <c r="G23">
-        <v>2.11207271649885</v>
+        <v>12.41282886448663</v>
       </c>
       <c r="H23">
-        <v>2.161835181937889</v>
+        <v>1.903156484660486</v>
       </c>
       <c r="I23">
-        <v>3.315145489319071</v>
+        <v>3.036013701782749</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.6241211598195</v>
+        <v>24.44289113965269</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.26637127133903</v>
       </c>
       <c r="M23">
-        <v>14.82765254976779</v>
+        <v>18.16709538545249</v>
       </c>
       <c r="N23">
-        <v>8.676201666522996</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.06844549007342</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.819850689953856</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.76522179302851</v>
+        <v>15.63931599951858</v>
       </c>
       <c r="C24">
-        <v>9.028116584203485</v>
+        <v>10.42793927719126</v>
       </c>
       <c r="D24">
-        <v>6.965349223962812</v>
+        <v>5.729881323810206</v>
       </c>
       <c r="E24">
-        <v>7.254271444191458</v>
+        <v>7.268235124223899</v>
       </c>
       <c r="F24">
-        <v>46.329552900766</v>
+        <v>36.67961488702816</v>
       </c>
       <c r="G24">
-        <v>2.122077505063082</v>
+        <v>6.637739908973684</v>
       </c>
       <c r="H24">
-        <v>2.610335477486654</v>
+        <v>2.206150096410564</v>
       </c>
       <c r="I24">
-        <v>3.713497794002014</v>
+        <v>3.272494224552656</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.94569916130252</v>
+        <v>26.08755453414468</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>19.78268867521408</v>
       </c>
       <c r="M24">
-        <v>13.72322157309386</v>
+        <v>19.09751122586262</v>
       </c>
       <c r="N24">
-        <v>8.157344785087714</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.19035982878448</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.417439777202091</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.30156885878772</v>
+        <v>14.18795037358906</v>
       </c>
       <c r="C25">
-        <v>8.096675246103073</v>
+        <v>9.477288732355838</v>
       </c>
       <c r="D25">
-        <v>6.816702389933014</v>
+        <v>5.648688762774838</v>
       </c>
       <c r="E25">
-        <v>6.664202123757878</v>
+        <v>6.825052262773551</v>
       </c>
       <c r="F25">
-        <v>43.24920632240817</v>
+        <v>34.88393905996352</v>
       </c>
       <c r="G25">
-        <v>2.13319391283102</v>
+        <v>7.701750930013127</v>
       </c>
       <c r="H25">
-        <v>3.110649414819643</v>
+        <v>2.601540669903533</v>
       </c>
       <c r="I25">
-        <v>4.159706034216351</v>
+        <v>3.600323279291827</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>32.04446569335324</v>
+        <v>25.25744424720927</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.49439301201939</v>
       </c>
       <c r="M25">
-        <v>12.43887326641021</v>
+        <v>18.11616154843513</v>
       </c>
       <c r="N25">
-        <v>7.563382091065201</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.9429999713567</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.858487600587086</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
